--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N2">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O2">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P2">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q2">
-        <v>0.8003498839520001</v>
+        <v>10.504001686976</v>
       </c>
       <c r="R2">
-        <v>7.203148955568001</v>
+        <v>94.536015182784</v>
       </c>
       <c r="S2">
-        <v>0.003408384225450487</v>
+        <v>0.1140551086416321</v>
       </c>
       <c r="T2">
-        <v>0.004385027746806725</v>
+        <v>0.1163207783633091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P3">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q3">
-        <v>2.009388881565334</v>
+        <v>29.92375943455733</v>
       </c>
       <c r="R3">
-        <v>18.084499934088</v>
+        <v>269.313834911016</v>
       </c>
       <c r="S3">
-        <v>0.008557219166328543</v>
+        <v>0.3249197529648395</v>
       </c>
       <c r="T3">
-        <v>0.01100921756404898</v>
+        <v>0.3313741841168915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N4">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O4">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P4">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q4">
-        <v>1.025634585496</v>
+        <v>20.75616045034933</v>
       </c>
       <c r="R4">
-        <v>9.230711269464001</v>
+        <v>186.805444053144</v>
       </c>
       <c r="S4">
-        <v>0.004367785655218098</v>
+        <v>0.2253756430830577</v>
       </c>
       <c r="T4">
-        <v>0.005619337499340854</v>
+        <v>0.2298526610493568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N5">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O5">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P5">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q5">
-        <v>0.6916356152100001</v>
+        <v>4.946934515363999</v>
       </c>
       <c r="R5">
-        <v>4.14981369126</v>
+        <v>29.681607092184</v>
       </c>
       <c r="S5">
-        <v>0.002945411710439989</v>
+        <v>0.05371506692468124</v>
       </c>
       <c r="T5">
-        <v>0.002526262929241148</v>
+        <v>0.03652140016015305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N6">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O6">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P6">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q6">
-        <v>1.342650957376</v>
+        <v>18.528625659504</v>
       </c>
       <c r="R6">
-        <v>12.083858616384</v>
+        <v>166.757630935536</v>
       </c>
       <c r="S6">
-        <v>0.005717837204910257</v>
+        <v>0.2011885065855558</v>
       </c>
       <c r="T6">
-        <v>0.007356234842314879</v>
+        <v>0.2051850545100557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N7">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O7">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P7">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q7">
-        <v>11.918786657264</v>
+        <v>0.6867464829119999</v>
       </c>
       <c r="R7">
-        <v>107.269079915376</v>
+        <v>6.180718346208</v>
       </c>
       <c r="S7">
-        <v>0.05075755646834668</v>
+        <v>0.007456867111408133</v>
       </c>
       <c r="T7">
-        <v>0.06530170272818693</v>
+        <v>0.007604995487542263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P8">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q8">
-        <v>29.92375943455733</v>
+        <v>1.956400727988</v>
       </c>
       <c r="R8">
-        <v>269.313834911016</v>
+        <v>17.607606551892</v>
       </c>
       <c r="S8">
-        <v>0.1274338532034287</v>
+        <v>0.02124309422511894</v>
       </c>
       <c r="T8">
-        <v>0.1639489403826452</v>
+        <v>0.02166508177090973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N9">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O9">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P9">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q9">
-        <v>15.273719729272</v>
+        <v>1.357027598892</v>
       </c>
       <c r="R9">
-        <v>137.463477563448</v>
+        <v>12.213248390028</v>
       </c>
       <c r="S9">
-        <v>0.06504493401329052</v>
+        <v>0.0147349491016579</v>
       </c>
       <c r="T9">
-        <v>0.08368300683582507</v>
+        <v>0.01502765434237601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N10">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O10">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P10">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q10">
-        <v>10.29981700197</v>
+        <v>0.3234281544179999</v>
       </c>
       <c r="R10">
-        <v>61.79890201182</v>
+        <v>1.940568926508</v>
       </c>
       <c r="S10">
-        <v>0.04386298355063758</v>
+        <v>0.003511864752996572</v>
       </c>
       <c r="T10">
-        <v>0.03762103237286891</v>
+        <v>0.002387751245518642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N11">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O11">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P11">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q11">
-        <v>19.994718106432</v>
+        <v>1.211392465848</v>
       </c>
       <c r="R11">
-        <v>179.952462957888</v>
+        <v>10.902532192632</v>
       </c>
       <c r="S11">
-        <v>0.08514986152028885</v>
+        <v>0.01315360597011906</v>
       </c>
       <c r="T11">
-        <v>0.1095488303857135</v>
+        <v>0.01341489831495394</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N12">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O12">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P12">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q12">
-        <v>0.1351541534413334</v>
+        <v>0.235909525824</v>
       </c>
       <c r="R12">
-        <v>1.216387380972</v>
+        <v>2.123185732416</v>
       </c>
       <c r="S12">
-        <v>0.0005755698774127423</v>
+        <v>0.002561565334744191</v>
       </c>
       <c r="T12">
-        <v>0.0007404945322288121</v>
+        <v>0.002612450043795348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>24.005506</v>
       </c>
       <c r="O13">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P13">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q13">
-        <v>0.3393231618668889</v>
+        <v>0.6720581459760001</v>
       </c>
       <c r="R13">
-        <v>3.053908456802</v>
+        <v>6.048523313784001</v>
       </c>
       <c r="S13">
-        <v>0.001445047641571781</v>
+        <v>0.007297377431672308</v>
       </c>
       <c r="T13">
-        <v>0.001859113757314838</v>
+        <v>0.007442337594277024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N14">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O14">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P14">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q14">
-        <v>0.1731977188006667</v>
+        <v>0.466162907784</v>
       </c>
       <c r="R14">
-        <v>1.558779469206</v>
+        <v>4.195466170056</v>
       </c>
       <c r="S14">
-        <v>0.0007375828802888982</v>
+        <v>0.00506171482797142</v>
       </c>
       <c r="T14">
-        <v>0.0009489309836272817</v>
+        <v>0.005162264239234815</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N15">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O15">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P15">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q15">
-        <v>0.1167957014025</v>
+        <v>0.111103273836</v>
       </c>
       <c r="R15">
-        <v>0.7007742084149999</v>
+        <v>0.666619643016</v>
       </c>
       <c r="S15">
-        <v>0.000497388247618689</v>
+        <v>0.001206387465028492</v>
       </c>
       <c r="T15">
-        <v>0.0004266070807505577</v>
+        <v>0.000820234654464403</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N16">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O16">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P16">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q16">
-        <v>0.2267319045706667</v>
+        <v>0.4161346716960001</v>
       </c>
       <c r="R16">
-        <v>2.040587141136</v>
+        <v>3.745212045264001</v>
       </c>
       <c r="S16">
-        <v>0.0009655645142710516</v>
+        <v>0.004518495579516716</v>
       </c>
       <c r="T16">
-        <v>0.001242238816502827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.187172</v>
-      </c>
-      <c r="N17">
-        <v>9.561516000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.1363537060697748</v>
-      </c>
-      <c r="P17">
-        <v>0.1419282855378281</v>
-      </c>
-      <c r="Q17">
-        <v>18.341174087992</v>
-      </c>
-      <c r="R17">
-        <v>110.047044527952</v>
-      </c>
-      <c r="S17">
-        <v>0.07810804960584256</v>
-      </c>
-      <c r="T17">
-        <v>0.06699283142494625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>8.001835333333334</v>
-      </c>
-      <c r="N18">
-        <v>24.005506</v>
-      </c>
-      <c r="O18">
-        <v>0.3423348043532233</v>
-      </c>
-      <c r="P18">
-        <v>0.3563305557453488</v>
-      </c>
-      <c r="Q18">
-        <v>46.04804976703867</v>
-      </c>
-      <c r="R18">
-        <v>276.288298602232</v>
-      </c>
-      <c r="S18">
-        <v>0.1961010422888328</v>
-      </c>
-      <c r="T18">
-        <v>0.1681947524564656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.084306000000001</v>
-      </c>
-      <c r="N19">
-        <v>12.252918</v>
-      </c>
-      <c r="O19">
-        <v>0.1747349248245835</v>
-      </c>
-      <c r="P19">
-        <v>0.1818786523575961</v>
-      </c>
-      <c r="Q19">
-        <v>23.503898557916</v>
-      </c>
-      <c r="R19">
-        <v>141.023391347496</v>
-      </c>
-      <c r="S19">
-        <v>0.1000941196940235</v>
-      </c>
-      <c r="T19">
-        <v>0.08585015912096884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.7542475</v>
-      </c>
-      <c r="N20">
-        <v>5.508495</v>
-      </c>
-      <c r="O20">
-        <v>0.1178323146847462</v>
-      </c>
-      <c r="P20">
-        <v>0.0817664532741145</v>
-      </c>
-      <c r="Q20">
-        <v>15.849829528785</v>
-      </c>
-      <c r="R20">
-        <v>63.39931811513999</v>
-      </c>
-      <c r="S20">
-        <v>0.06749836543392319</v>
-      </c>
-      <c r="T20">
-        <v>0.03859531029809073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.346736</v>
-      </c>
-      <c r="N21">
-        <v>16.040208</v>
-      </c>
-      <c r="O21">
-        <v>0.2287442500676723</v>
-      </c>
-      <c r="P21">
-        <v>0.2380960530851126</v>
-      </c>
-      <c r="Q21">
-        <v>30.768786804896</v>
-      </c>
-      <c r="R21">
-        <v>184.612720829376</v>
-      </c>
-      <c r="S21">
-        <v>0.131032501765623</v>
-      </c>
-      <c r="T21">
-        <v>0.1123858340628279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.187172</v>
-      </c>
-      <c r="N22">
-        <v>9.561516000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.1363537060697748</v>
-      </c>
-      <c r="P22">
-        <v>0.1419282855378281</v>
-      </c>
-      <c r="Q22">
-        <v>0.8228364448026668</v>
-      </c>
-      <c r="R22">
-        <v>7.405528003224001</v>
-      </c>
-      <c r="S22">
-        <v>0.003504145892722299</v>
-      </c>
-      <c r="T22">
-        <v>0.004508229105659355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>8.001835333333334</v>
-      </c>
-      <c r="N23">
-        <v>24.005506</v>
-      </c>
-      <c r="O23">
-        <v>0.3423348043532233</v>
-      </c>
-      <c r="P23">
-        <v>0.3563305557453488</v>
-      </c>
-      <c r="Q23">
-        <v>2.065844497120445</v>
-      </c>
-      <c r="R23">
-        <v>18.592600474084</v>
-      </c>
-      <c r="S23">
-        <v>0.008797642053061513</v>
-      </c>
-      <c r="T23">
-        <v>0.01131853158487423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>4.084306000000001</v>
-      </c>
-      <c r="N24">
-        <v>12.252918</v>
-      </c>
-      <c r="O24">
-        <v>0.1747349248245835</v>
-      </c>
-      <c r="P24">
-        <v>0.1818786523575961</v>
-      </c>
-      <c r="Q24">
-        <v>1.054450725761334</v>
-      </c>
-      <c r="R24">
-        <v>9.490056531852002</v>
-      </c>
-      <c r="S24">
-        <v>0.004490502581762467</v>
-      </c>
-      <c r="T24">
-        <v>0.005777217917834099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.7542475</v>
-      </c>
-      <c r="N25">
-        <v>5.508495</v>
-      </c>
-      <c r="O25">
-        <v>0.1178323146847462</v>
-      </c>
-      <c r="P25">
-        <v>0.0817664532741145</v>
-      </c>
-      <c r="Q25">
-        <v>0.7110677494050001</v>
-      </c>
-      <c r="R25">
-        <v>4.26640649643</v>
-      </c>
-      <c r="S25">
-        <v>0.00302816574212677</v>
-      </c>
-      <c r="T25">
-        <v>0.002597240593163158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>5.346736</v>
-      </c>
-      <c r="N26">
-        <v>16.040208</v>
-      </c>
-      <c r="O26">
-        <v>0.2287442500676723</v>
-      </c>
-      <c r="P26">
-        <v>0.2380960530851126</v>
-      </c>
-      <c r="Q26">
-        <v>1.380373962101334</v>
-      </c>
-      <c r="R26">
-        <v>12.423365658912</v>
-      </c>
-      <c r="S26">
-        <v>0.00587848506257913</v>
-      </c>
-      <c r="T26">
-        <v>0.00756291497775353</v>
+        <v>0.004608254107161534</v>
       </c>
     </row>
   </sheetData>
